--- a/iselUssSyncV2/OutputWSL/20220429_1557_D50L474W90Q12.0U0.23H65.5G2_C_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220429_1557_D50L474W90Q12.0U0.23H65.5G2_C_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>D</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>gamma</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>Q</t>
@@ -170,45 +176,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="true"/>
     <col min="2" max="2" width="2" customWidth="true"/>
     <col min="3" max="3" width="7.5703125" customWidth="true"/>
-    <col min="4" max="4" width="2.5703125" customWidth="true"/>
-    <col min="5" max="5" width="4.7109375" customWidth="true"/>
-    <col min="6" max="6" width="8.42578125" customWidth="true"/>
-    <col min="7" max="7" width="5" customWidth="true"/>
-    <col min="8" max="8" width="7.42578125" customWidth="true"/>
-    <col min="9" max="9" width="10.85546875" customWidth="true"/>
-    <col min="10" max="10" width="2.42578125" customWidth="true"/>
-    <col min="11" max="11" width="2" customWidth="true"/>
-    <col min="12" max="12" width="2.28515625" customWidth="true"/>
-    <col min="13" max="13" width="6.42578125" customWidth="true"/>
+    <col min="4" max="4" width="8.42578125" customWidth="true"/>
+    <col min="5" max="5" width="2.5703125" customWidth="true"/>
+    <col min="6" max="6" width="4.7109375" customWidth="true"/>
+    <col min="7" max="7" width="8.42578125" customWidth="true"/>
+    <col min="8" max="8" width="5" customWidth="true"/>
+    <col min="9" max="9" width="7.42578125" customWidth="true"/>
+    <col min="10" max="10" width="10.85546875" customWidth="true"/>
+    <col min="11" max="11" width="2.42578125" customWidth="true"/>
+    <col min="12" max="12" width="2" customWidth="true"/>
+    <col min="13" max="13" width="2.28515625" customWidth="true"/>
     <col min="14" max="14" width="6.42578125" customWidth="true"/>
-    <col min="15" max="15" width="5.85546875" customWidth="true"/>
-    <col min="16" max="16" width="5" customWidth="true"/>
-    <col min="17" max="17" width="3.42578125" customWidth="true"/>
-    <col min="18" max="18" width="3.85546875" customWidth="true"/>
-    <col min="19" max="19" width="16.140625" customWidth="true"/>
-    <col min="20" max="20" width="10.28515625" customWidth="true"/>
-    <col min="21" max="21" width="5.85546875" customWidth="true"/>
-    <col min="22" max="22" width="4" customWidth="true"/>
-    <col min="23" max="23" width="4.140625" customWidth="true"/>
-    <col min="24" max="24" width="5.28515625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="4.5703125" customWidth="true"/>
-    <col min="27" max="27" width="3.42578125" customWidth="true"/>
-    <col min="28" max="28" width="6.140625" customWidth="true"/>
-    <col min="29" max="29" width="11.5703125" customWidth="true"/>
-    <col min="30" max="30" width="3.28515625" customWidth="true"/>
-    <col min="31" max="31" width="5.5703125" customWidth="true"/>
-    <col min="32" max="32" width="3" customWidth="true"/>
-    <col min="33" max="33" width="10.7109375" customWidth="true"/>
-    <col min="34" max="34" width="9.28515625" customWidth="true"/>
-    <col min="35" max="35" width="7.42578125" customWidth="true"/>
-    <col min="36" max="36" width="6.28515625" customWidth="true"/>
+    <col min="15" max="15" width="6.42578125" customWidth="true"/>
+    <col min="16" max="16" width="5.85546875" customWidth="true"/>
+    <col min="17" max="17" width="5" customWidth="true"/>
+    <col min="18" max="18" width="3.42578125" customWidth="true"/>
+    <col min="19" max="19" width="3.85546875" customWidth="true"/>
+    <col min="20" max="20" width="16.140625" customWidth="true"/>
+    <col min="21" max="21" width="10.28515625" customWidth="true"/>
+    <col min="22" max="22" width="5.85546875" customWidth="true"/>
+    <col min="23" max="23" width="4" customWidth="true"/>
+    <col min="24" max="24" width="4.140625" customWidth="true"/>
+    <col min="25" max="25" width="5.28515625" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="4.5703125" customWidth="true"/>
+    <col min="28" max="28" width="3.42578125" customWidth="true"/>
+    <col min="29" max="29" width="6.140625" customWidth="true"/>
+    <col min="30" max="30" width="11.5703125" customWidth="true"/>
+    <col min="31" max="31" width="3.28515625" customWidth="true"/>
+    <col min="32" max="32" width="5.5703125" customWidth="true"/>
+    <col min="33" max="33" width="3" customWidth="true"/>
+    <col min="34" max="34" width="10.7109375" customWidth="true"/>
+    <col min="35" max="35" width="9.28515625" customWidth="true"/>
+    <col min="36" max="36" width="7.42578125" customWidth="true"/>
+    <col min="37" max="37" width="6.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -225,100 +232,103 @@
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ1" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -331,103 +341,106 @@
       <c r="C2" s="0">
         <v>90</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0">
         <v>0.012</v>
       </c>
-      <c r="E2" s="0">
+      <c r="F2" s="0">
         <v>0.065587155677427469</v>
       </c>
-      <c r="F2" s="0">
+      <c r="G2" s="0">
         <v>0.070576471428849333</v>
       </c>
-      <c r="G2" s="0">
+      <c r="H2" s="0">
         <v>0.018248366700409933</v>
       </c>
-      <c r="H2" s="0">
+      <c r="I2" s="0">
         <v>0.032746980244297244</v>
       </c>
-      <c r="I2" s="0">
+      <c r="J2" s="0">
         <v>0.021398012567620927</v>
       </c>
-      <c r="J2" s="0">
+      <c r="K2" s="0">
         <v>0.002</v>
       </c>
-      <c r="K2" s="0">
+      <c r="L2" s="0">
         <v>0.027000000000000003</v>
       </c>
-      <c r="L2" s="0">
+      <c r="M2" s="0">
         <v>0.23159829483121308</v>
       </c>
-      <c r="M2" s="0">
+      <c r="N2" s="0">
         <v>0.040000000000000001</v>
       </c>
-      <c r="N2" s="0">
+      <c r="O2" s="0">
         <v>1.3117431135485493</v>
       </c>
-      <c r="O2" s="0">
+      <c r="P2" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="P2" s="0">
+      <c r="Q2" s="0">
         <v>0.023699999999999999</v>
       </c>
-      <c r="Q2" s="0">
+      <c r="R2" s="0">
         <v>0.4574066322916458</v>
       </c>
-      <c r="R2" s="0">
+      <c r="S2" s="0">
         <v>766.86617999999976</v>
       </c>
-      <c r="S2" s="0">
+      <c r="T2" s="0">
         <v>7.5229572257999981</v>
       </c>
-      <c r="T2" s="0">
+      <c r="U2" s="0">
         <v>11.835852031897756</v>
       </c>
-      <c r="U2" s="0">
+      <c r="V2" s="0">
         <v>3.4845643489650833</v>
       </c>
-      <c r="V2" s="0">
+      <c r="W2" s="0">
         <v>0.028651438672384837</v>
       </c>
-      <c r="W2" s="0">
+      <c r="X2" s="0">
         <v>0.022634636551184022</v>
       </c>
-      <c r="X2" s="0">
+      <c r="Y2" s="0">
         <v>0.28872969708117774</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="Z2" s="0">
         <v>0.96697150479954375</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="AA2" s="0">
         <v>0.22499043816782235</v>
       </c>
-      <c r="AA2" s="0">
+      <c r="AB2" s="0">
         <v>52107.401832995136</v>
       </c>
-      <c r="AB2" s="0">
+      <c r="AC2" s="0">
         <v>109777.591749995</v>
       </c>
-      <c r="AC2" s="0">
+      <c r="AD2" s="0">
         <v>110000</v>
       </c>
-      <c r="AD2" s="0">
+      <c r="AE2" s="0">
         <v>0.63560757649939714</v>
       </c>
-      <c r="AE2" s="0">
+      <c r="AF2" s="0">
         <v>2.1589376669236482</v>
       </c>
-      <c r="AF2" s="0">
+      <c r="AG2" s="0">
         <v>6.7734252484557258</v>
       </c>
-      <c r="AG2" s="0">
+      <c r="AH2" s="0">
         <v>7.3870837949816428</v>
       </c>
-      <c r="AH2" s="0">
+      <c r="AI2" s="0">
         <v>22</v>
       </c>
-      <c r="AI2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="0">
+      <c r="AJ2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="0">
         <v>8.9323629153793735</v>
       </c>
     </row>
